--- a/Log/Test Log/None_result_221118100122.xlsx
+++ b/Log/Test Log/None_result_221118100122.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
